--- a/docs/planning/要求整理.xlsx
+++ b/docs/planning/要求整理.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktyou\Desktop\お仕事\プログラミング\memoAppDev\MemoApp\docs\planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3D73C-73CE-497D-ABD9-EA51B103C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,27 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要求</t>
-  </si>
-  <si>
-    <t xml:space="preserve">優先度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">備考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">例：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文字のフォントを変えられるようにしたい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>要求</t>
+  </si>
+  <si>
+    <t>優先度</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>例：</t>
+  </si>
+  <si>
+    <t>文字のフォントを変えられるようにしたい</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
   <si>
     <r>
@@ -50,7 +55,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">Bold</t>
+      <t>Bold</t>
     </r>
     <r>
       <rPr>
@@ -59,19 +64,87 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">とかもできると尚良</t>
+      <t>とかもできると尚良</t>
     </r>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月の支出を表示したい</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふたつ欄を用意する。金額と備考</t>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動でメモの内容を保存したい</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数のメモを別々に保存したい。フォルダ機能</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
@@ -81,24 +154,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -118,95 +179,67 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -265,62 +298,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -373,28 +422,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.86"/>
+    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,12 +456,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <f aca="false">ROW()-3</f>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B14" si="0">ROW()-3</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -426,99 +474,113 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="n">
-        <f aca="false">ROW()-3</f>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="7"/>
@@ -526,16 +588,16 @@
       <c r="E14" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D22" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D3:D22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
